--- a/progetto/results/randomMergeHeapPython/mergeSort.xlsx
+++ b/progetto/results/randomMergeHeapPython/mergeSort.xlsx
@@ -348,7 +348,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B70"/>
+  <dimension ref="A1:B69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -364,7 +364,7 @@
         <v>1000</v>
       </c>
       <c r="B2">
-        <v>0.003162860870361328</v>
+        <v>0.003181934356689453</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -372,7 +372,7 @@
         <v>1500</v>
       </c>
       <c r="B3">
-        <v>0.005007505416870117</v>
+        <v>0.005105733871459961</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -380,7 +380,7 @@
         <v>2000</v>
       </c>
       <c r="B4">
-        <v>0.006907939910888672</v>
+        <v>0.006902217864990234</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -388,7 +388,7 @@
         <v>2500</v>
       </c>
       <c r="B5">
-        <v>0.008728981018066406</v>
+        <v>0.01072287559509277</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -396,7 +396,7 @@
         <v>3000</v>
       </c>
       <c r="B6">
-        <v>0.01252341270446777</v>
+        <v>0.01135635375976562</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -404,7 +404,7 @@
         <v>3500</v>
       </c>
       <c r="B7">
-        <v>0.01286721229553223</v>
+        <v>0.01309776306152344</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -412,7 +412,7 @@
         <v>4000</v>
       </c>
       <c r="B8">
-        <v>0.01465845108032227</v>
+        <v>0.01477646827697754</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -420,7 +420,7 @@
         <v>4500</v>
       </c>
       <c r="B9">
-        <v>0.01770949363708496</v>
+        <v>0.01667284965515137</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -428,7 +428,7 @@
         <v>5000</v>
       </c>
       <c r="B10">
-        <v>0.0187993049621582</v>
+        <v>0.01879763603210449</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -436,7 +436,7 @@
         <v>5500</v>
       </c>
       <c r="B11">
-        <v>0.02171683311462402</v>
+        <v>0.02469682693481445</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -444,7 +444,7 @@
         <v>6000</v>
       </c>
       <c r="B12">
-        <v>0.04595518112182617</v>
+        <v>0.02359628677368164</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -452,7 +452,7 @@
         <v>6500</v>
       </c>
       <c r="B13">
-        <v>0.0473480224609375</v>
+        <v>0.02547025680541992</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -460,7 +460,7 @@
         <v>7000</v>
       </c>
       <c r="B14">
-        <v>0.02708816528320312</v>
+        <v>0.02705049514770508</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -468,7 +468,7 @@
         <v>7500</v>
       </c>
       <c r="B15">
-        <v>0.03050637245178223</v>
+        <v>0.03332281112670898</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -476,7 +476,7 @@
         <v>8000</v>
       </c>
       <c r="B16">
-        <v>0.03154683113098145</v>
+        <v>0.03128933906555176</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -484,7 +484,7 @@
         <v>8500</v>
       </c>
       <c r="B17">
-        <v>0.03321218490600586</v>
+        <v>0.03385114669799805</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -492,7 +492,7 @@
         <v>9000</v>
       </c>
       <c r="B18">
-        <v>0.03554534912109375</v>
+        <v>0.03581953048706055</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -500,7 +500,7 @@
         <v>9500</v>
       </c>
       <c r="B19">
-        <v>0.03786778450012207</v>
+        <v>0.03805971145629883</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -508,7 +508,7 @@
         <v>10000</v>
       </c>
       <c r="B20">
-        <v>0.04300355911254883</v>
+        <v>0.03964710235595703</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -516,7 +516,7 @@
         <v>11000</v>
       </c>
       <c r="B21">
-        <v>0.0446164608001709</v>
+        <v>0.0441594123840332</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -524,7 +524,7 @@
         <v>12000</v>
       </c>
       <c r="B22">
-        <v>0.04920697212219238</v>
+        <v>0.04860949516296387</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -532,7 +532,7 @@
         <v>13000</v>
       </c>
       <c r="B23">
-        <v>0.05496454238891602</v>
+        <v>0.05736231803894042</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -540,7 +540,7 @@
         <v>14000</v>
       </c>
       <c r="B24">
-        <v>0.05783820152282715</v>
+        <v>0.06072425842285156</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -548,7 +548,7 @@
         <v>15000</v>
       </c>
       <c r="B25">
-        <v>0.06319975852966309</v>
+        <v>0.07011985778808594</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -556,7 +556,7 @@
         <v>16000</v>
       </c>
       <c r="B26">
-        <v>0.06675195693969728</v>
+        <v>0.07688164710998535</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -564,7 +564,7 @@
         <v>17000</v>
       </c>
       <c r="B27">
-        <v>0.07373046875</v>
+        <v>0.0793004035949707</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -572,7 +572,7 @@
         <v>18000</v>
       </c>
       <c r="B28">
-        <v>0.1406266689300537</v>
+        <v>0.08073139190673828</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -580,7 +580,7 @@
         <v>19000</v>
       </c>
       <c r="B29">
-        <v>0.08920145034790039</v>
+        <v>0.08490180969238281</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -588,7 +588,7 @@
         <v>20000</v>
       </c>
       <c r="B30">
-        <v>0.1087000370025635</v>
+        <v>0.08727788925170897</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -596,7 +596,7 @@
         <v>21000</v>
       </c>
       <c r="B31">
-        <v>0.0917201042175293</v>
+        <v>0.09242010116577147</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -604,7 +604,7 @@
         <v>22000</v>
       </c>
       <c r="B32">
-        <v>0.09467673301696776</v>
+        <v>0.0964360237121582</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -612,7 +612,7 @@
         <v>23000</v>
       </c>
       <c r="B33">
-        <v>0.1001324653625488</v>
+        <v>0.09848713874816896</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -620,7 +620,7 @@
         <v>24000</v>
       </c>
       <c r="B34">
-        <v>0.1211888790130615</v>
+        <v>0.1048085689544678</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -628,7 +628,7 @@
         <v>25000</v>
       </c>
       <c r="B35">
-        <v>0.2125184535980225</v>
+        <v>0.1074495315551758</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -636,7 +636,7 @@
         <v>26000</v>
       </c>
       <c r="B36">
-        <v>0.1259746551513672</v>
+        <v>0.1144533157348633</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -644,7 +644,7 @@
         <v>27000</v>
       </c>
       <c r="B37">
-        <v>0.1241450309753418</v>
+        <v>0.117053747177124</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -652,7 +652,7 @@
         <v>28000</v>
       </c>
       <c r="B38">
-        <v>0.1267287731170655</v>
+        <v>0.1230947971343994</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -660,7 +660,7 @@
         <v>29000</v>
       </c>
       <c r="B39">
-        <v>0.1492202281951905</v>
+        <v>0.1260554790496826</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -668,7 +668,7 @@
         <v>30000</v>
       </c>
       <c r="B40">
-        <v>0.2170984745025635</v>
+        <v>0.13130784034729</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -676,7 +676,7 @@
         <v>31000</v>
       </c>
       <c r="B41">
-        <v>0.1396496295928955</v>
+        <v>0.135465145111084</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -684,7 +684,7 @@
         <v>32000</v>
       </c>
       <c r="B42">
-        <v>0.1434826850891113</v>
+        <v>0.1448981761932373</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -692,7 +692,7 @@
         <v>33000</v>
       </c>
       <c r="B43">
-        <v>0.148012638092041</v>
+        <v>0.1467502117156982</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -700,7 +700,7 @@
         <v>34000</v>
       </c>
       <c r="B44">
-        <v>0.2105231285095215</v>
+        <v>0.151904821395874</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -708,7 +708,7 @@
         <v>35000</v>
       </c>
       <c r="B45">
-        <v>0.1597700119018555</v>
+        <v>0.1567335128784179</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -716,7 +716,7 @@
         <v>36000</v>
       </c>
       <c r="B46">
-        <v>0.1642193794250489</v>
+        <v>0.1591944694519043</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -724,7 +724,7 @@
         <v>37000</v>
       </c>
       <c r="B47">
-        <v>0.165076732635498</v>
+        <v>0.1634540557861328</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -732,7 +732,7 @@
         <v>38000</v>
       </c>
       <c r="B48">
-        <v>0.1713094711303711</v>
+        <v>0.1749968528747559</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -740,7 +740,7 @@
         <v>39000</v>
       </c>
       <c r="B49">
-        <v>0.1762304306030273</v>
+        <v>0.1753339767456055</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -748,7 +748,7 @@
         <v>40000</v>
       </c>
       <c r="B50">
-        <v>0.1805546283721924</v>
+        <v>0.1788902282714844</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -756,7 +756,7 @@
         <v>41000</v>
       </c>
       <c r="B51">
-        <v>0.1878929138183593</v>
+        <v>0.1831407546997071</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -764,7 +764,7 @@
         <v>42000</v>
       </c>
       <c r="B52">
-        <v>0.1908178329467773</v>
+        <v>0.1877098083496093</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -772,7 +772,7 @@
         <v>43000</v>
       </c>
       <c r="B53">
-        <v>0.1943552494049073</v>
+        <v>0.1949479579925537</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -780,7 +780,7 @@
         <v>44000</v>
       </c>
       <c r="B54">
-        <v>0.2101712226867676</v>
+        <v>0.2012531757354737</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -788,7 +788,7 @@
         <v>45000</v>
       </c>
       <c r="B55">
-        <v>0.2038893699645996</v>
+        <v>0.2072644233703613</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -796,7 +796,7 @@
         <v>46000</v>
       </c>
       <c r="B56">
-        <v>0.2142696380615234</v>
+        <v>0.2159764766693115</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -804,7 +804,7 @@
         <v>47000</v>
       </c>
       <c r="B57">
-        <v>0.2179181575775146</v>
+        <v>0.2167167663574219</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -812,7 +812,7 @@
         <v>48000</v>
       </c>
       <c r="B58">
-        <v>0.2254402637481689</v>
+        <v>0.2217879295349121</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -820,7 +820,7 @@
         <v>49000</v>
       </c>
       <c r="B59">
-        <v>0.2343358993530273</v>
+        <v>0.2263674736022949</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -828,7 +828,7 @@
         <v>50000</v>
       </c>
       <c r="B60">
-        <v>0.2346444129943848</v>
+        <v>0.2290384769439697</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -836,7 +836,7 @@
         <v>55000</v>
       </c>
       <c r="B61">
-        <v>0.2599828243255615</v>
+        <v>0.2654092311859131</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -844,7 +844,7 @@
         <v>60000</v>
       </c>
       <c r="B62">
-        <v>0.2827126979827881</v>
+        <v>0.2792260646820068</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -852,7 +852,7 @@
         <v>65000</v>
       </c>
       <c r="B63">
-        <v>0.3096916675567627</v>
+        <v>0.3043224811553955</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -860,7 +860,7 @@
         <v>70000</v>
       </c>
       <c r="B64">
-        <v>0.3382468223571777</v>
+        <v>0.3351585865020752</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -868,7 +868,7 @@
         <v>75000</v>
       </c>
       <c r="B65">
-        <v>0.3644475936889648</v>
+        <v>0.3646233081817627</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -876,7 +876,7 @@
         <v>80000</v>
       </c>
       <c r="B66">
-        <v>0.4085156917572021</v>
+        <v>0.3954300880432129</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -884,7 +884,7 @@
         <v>85000</v>
       </c>
       <c r="B67">
-        <v>0.4175171852111816</v>
+        <v>0.4160120487213135</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -892,7 +892,7 @@
         <v>90000</v>
       </c>
       <c r="B68">
-        <v>0.4429671764373779</v>
+        <v>0.4756040573120117</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -900,15 +900,7 @@
         <v>95000</v>
       </c>
       <c r="B69">
-        <v>0.4822676181793213</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70">
-        <v>100000</v>
-      </c>
-      <c r="B70">
-        <v>0.4958202838897705</v>
+        <v>0.4737997055053711</v>
       </c>
     </row>
   </sheetData>
